--- a/static/马勒滤芯导入.xlsx
+++ b/static/马勒滤芯导入.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>warehouse_id</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>safety_stock</t>
+  </si>
+  <si>
+    <t>batch_id</t>
   </si>
   <si>
     <t>OC1022</t>
@@ -77,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -100,13 +103,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -120,6 +210,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1208,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1218,8 +1335,8 @@
     <col min="2" max="2" width="13.1719" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.17188" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="6.17188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -1238,13 +1355,16 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="14" customHeight="1">
       <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>100</v>
@@ -1253,13 +1373,16 @@
         <v>22</v>
       </c>
       <c r="E2" s="4"/>
+      <c r="F2" s="3">
+        <v>12331</v>
+      </c>
     </row>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>100</v>
@@ -1268,13 +1391,14 @@
         <v>2</v>
       </c>
       <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="14" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>100</v>
@@ -1283,6 +1407,55 @@
         <v>41</v>
       </c>
       <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="14" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="14" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" ht="14" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="14" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="14" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" ht="14" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,8 +1474,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.16667" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="6.17188" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="6.17188" style="5" customWidth="1"/>
+    <col min="1" max="5" width="6.17188" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="6.17188" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -1392,8 +1565,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.16667" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="6.17188" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="6.17188" style="6" customWidth="1"/>
+    <col min="1" max="5" width="6.17188" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="6.17188" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
